--- a/data/outputs/数学期刊(下)_altmetric/48Mediterranean Journal of Mathematics.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/48Mediterranean Journal of Mathematics.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE89"/>
+  <dimension ref="A1:CF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1284,6 +1292,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1533,6 +1544,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1792,6 +1806,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2041,6 +2058,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2288,6 +2308,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2531,6 +2554,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2786,6 +2812,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3033,6 +3062,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3276,6 +3308,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3521,6 +3556,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3780,6 +3818,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4033,6 +4074,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4286,6 +4330,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4541,6 +4588,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4784,6 +4834,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5037,6 +5090,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5282,6 +5338,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5533,6 +5592,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5784,6 +5846,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6027,6 +6092,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6268,6 +6336,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6511,6 +6582,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6766,6 +6840,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7011,6 +7088,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7260,6 +7340,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7523,6 +7606,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7772,6 +7858,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8017,6 +8106,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8266,6 +8358,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8513,6 +8608,9 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8752,6 +8850,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8991,6 +9092,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9234,6 +9338,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9475,6 +9582,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9712,6 +9822,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9959,6 +10072,9 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10202,6 +10318,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10449,6 +10568,9 @@
         <v>0</v>
       </c>
       <c r="CE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10704,6 +10826,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10945,6 +11070,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11198,6 +11326,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11456,6 +11587,9 @@
       </c>
       <c r="CE44" t="n">
         <v>0</v>
+      </c>
+      <c r="CF44" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="45">
@@ -11698,6 +11832,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11945,6 +12082,9 @@
         <v>0</v>
       </c>
       <c r="CE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12188,6 +12328,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12431,6 +12574,9 @@
         <v>0</v>
       </c>
       <c r="CE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12674,6 +12820,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12932,6 +13081,9 @@
       </c>
       <c r="CE50" t="n">
         <v>0</v>
+      </c>
+      <c r="CF50" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="51">
@@ -13174,6 +13326,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13415,6 +13570,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13656,6 +13814,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13909,6 +14070,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14158,6 +14322,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14405,6 +14572,9 @@
         <v>0</v>
       </c>
       <c r="CE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14648,6 +14818,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14897,6 +15070,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15144,6 +15320,9 @@
         <v>0</v>
       </c>
       <c r="CE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15387,6 +15566,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15636,6 +15818,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15895,6 +16080,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16150,6 +16338,9 @@
         <v>0</v>
       </c>
       <c r="CE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16389,6 +16580,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16636,6 +16830,9 @@
         <v>0</v>
       </c>
       <c r="CE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16879,6 +17076,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17126,6 +17326,9 @@
         <v>0</v>
       </c>
       <c r="CE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17369,6 +17572,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17610,6 +17816,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17869,6 +18078,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18114,6 +18326,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18363,6 +18578,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18609,6 +18827,9 @@
       </c>
       <c r="CE73" t="n">
         <v>0</v>
+      </c>
+      <c r="CF73" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="74">
@@ -18851,6 +19072,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19094,6 +19318,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19343,6 +19570,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19586,6 +19816,9 @@
         <v>0</v>
       </c>
       <c r="CE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19829,6 +20062,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20078,6 +20314,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20335,6 +20574,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20578,6 +20820,9 @@
         <v>0</v>
       </c>
       <c r="CE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20821,6 +21066,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21068,6 +21316,9 @@
         <v>0</v>
       </c>
       <c r="CE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21311,6 +21562,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21552,6 +21806,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21801,6 +22058,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22048,6 +22308,9 @@
         <v>0</v>
       </c>
       <c r="CE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22295,6 +22558,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22544,6 +22810,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
